--- a/other/coffeeOrders.xlsx
+++ b/other/coffeeOrders.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funti\funshake.github.io\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017EF104-93A6-48C1-AA6A-BFE241BF625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7652DE77-8BAE-4C8C-A5B8-324B53E8D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="orders" sheetId="17" r:id="rId1"/>
-    <sheet name="customers" sheetId="13" r:id="rId2"/>
-    <sheet name="products" sheetId="2" r:id="rId3"/>
+    <sheet name="Заказы" sheetId="17" r:id="rId1"/>
+    <sheet name="Клиенты" sheetId="13" r:id="rId2"/>
+    <sheet name="Продукты" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orders!$A$1:$L$1001</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">products!$A$1:$G$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Заказы!$A$1:$L$1001</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Продукты!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
